--- a/AOC25/day10/brainstorm.xlsx
+++ b/AOC25/day10/brainstorm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adomas\Documents\GitHub\AOC25\AOC25\day10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65660E40-A50B-44D1-A371-F53C76B3DF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EFC465-DF12-4623-99EF-230429C72F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2E265E4C-2000-4D12-84F2-2C4A93F6DE5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>&lt;</t>
   </si>
@@ -94,33 +94,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,29 +119,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,13 +476,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C27D49-D282-4D4A-B9CD-0F9675B81E43}">
-  <dimension ref="A1:BS31"/>
+  <dimension ref="A1:BS60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP15" sqref="AP15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Y60" sqref="Y52:Y60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="3.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -1580,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="F7:H7" si="16">BR1-$BP1*BR$5</f>
+        <f t="shared" ref="G7:H7" si="16">BR1-$BP1*BR$5</f>
         <v>2</v>
       </c>
       <c r="H7">
@@ -1708,10 +1700,96 @@
         <v>-10</v>
       </c>
     </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>2</v>
+      </c>
+      <c r="AO12">
+        <v>2</v>
+      </c>
+      <c r="AP12">
+        <v>2</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>3</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+      <c r="AU12">
+        <v>3</v>
+      </c>
+    </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1736,24 +1814,31 @@
         <v>3</v>
       </c>
       <c r="I14">
+        <f>A14-$A14*A$14</f>
         <v>0</v>
       </c>
       <c r="J14">
+        <f t="shared" ref="J14:O14" si="20">B14-$A14*B$14</f>
         <v>0</v>
       </c>
       <c r="K14">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L14">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M14">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N14">
+        <f>F14-$A14*F$14</f>
         <v>1</v>
       </c>
       <c r="O14">
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="Q14">
@@ -1761,27 +1846,27 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:W14" si="20">J14-$J14*J$15</f>
+        <f t="shared" ref="R14:W14" si="21">J14-$J14*J$15</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="20"/>
+        <f>K14-$J14*K$15</f>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="Y14">
@@ -1808,27 +1893,69 @@
       <c r="AF14" t="s">
         <v>0</v>
       </c>
-      <c r="AH14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
+      <c r="AH14">
+        <f t="shared" ref="AH14:AU17" si="22">-$AB14*AH$12+-$AD14*AH$13+$AE14</f>
+        <v>3</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AK14" s="1" t="s">
+      <c r="AJ14">
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="AL14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="AK14">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1857,27 +1984,27 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <f>B15-$A15*B$14</f>
+        <f t="shared" ref="J15:O17" si="23">B15-$A15*B$14</f>
         <v>1</v>
       </c>
       <c r="K15">
-        <f>C15-$A15*C$14</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>D15-$A15*D$14</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>E15-$A15*E$14</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>F15-$A15*F$14</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O15">
-        <f>G15-$A15*G$14</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="P15" t="s">
@@ -1905,19 +2032,19 @@
         <v>5</v>
       </c>
       <c r="Y15">
-        <f t="shared" ref="Y15:AB17" si="21">Q15-$U15*Q$14</f>
+        <f>Q15-$U15*Q$14</f>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="Y15:AB17" si="24">R15-$U15*R$14</f>
         <v>1</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC15">
@@ -1925,43 +2052,74 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" ref="AD15:AE17" si="22">V15-$U15*V$14</f>
+        <f>V15-$U15*V$14</f>
         <v>1</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AE15:AE17" si="25">W15-$U15*W$14</f>
         <v>5</v>
       </c>
-      <c r="AH15" s="2">
-        <f>SUM(AI15:AN15)</f>
-        <v>11</v>
-      </c>
-      <c r="AI15" s="2">
-        <f>Y$19+Z$19+AA$19+AB$19*AL15+AC$19+AD$19*AN15+AE$19</f>
+      <c r="AH15">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AJ15" s="2">
-        <f>Y$20+Z$20+AA$20+AB$20*AL15+AC$20+AD$20*AN15+AE$20</f>
+      <c r="AQ15">
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="AK15" s="2">
-        <f>Y$21+Z$21+AA$21+AB$21*AL15+AC$21+AD$21*AN15+AE$21</f>
-        <v>1</v>
-      </c>
-      <c r="AL15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="2">
-        <f>Y$22+Z$22+AA$22+AB$22*AL15+AC$22+AD$22*AN15+AE$22</f>
+      <c r="AR15">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="AN15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="9">
-        <f>MIN(AH15:AH28)</f>
-        <v>10</v>
-      </c>
+      <c r="AT15">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BC15" s="4"/>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1994,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f>C16-$A16*C$14</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="L16">
@@ -2002,15 +2160,15 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <f>E16-$A16*E$14</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="N16">
-        <f>F16-$A16*F$14</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>G16-$A16*G$14</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="Q16">
@@ -2018,252 +2176,364 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16:W17" si="23">J16-$J16*J$15</f>
+        <f t="shared" ref="R16:W17" si="26">J16-$J16*J$15</f>
         <v>0</v>
       </c>
       <c r="S16">
+        <f>K16-$J16*K$15</f>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="X16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" ref="AC16:AC17" si="27">U16-$U16*U$14</f>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" ref="AD16:AD17" si="28">V16-$U16*V$14</f>
+        <v>-1</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="22"/>
+        <v>-2</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BC16" s="4"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>A17-$A17*A$14</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="29">B17-$A17*B$14</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="U16">
+      <c r="M17">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="V16">
+        <v>-1</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="X16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" ref="AC16:AC17" si="24">U16-$U16*U$14</f>
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" ref="AD16:AD17" si="25">V16-$U16*V$14</f>
-        <v>-1</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AH16" s="6">
-        <f t="shared" ref="AH16:AH28" si="26">SUM(AI16:AN16)</f>
-        <v>10</v>
-      </c>
-      <c r="AI16" s="6">
-        <f t="shared" ref="AI16:AI28" si="27">Y$19+Z$19+AA$19+AB$19*AL16+AC$19+AD$19*AN16+AE$19</f>
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="6">
-        <f t="shared" ref="AJ16:AJ28" si="28">Y$20+Z$20+AA$20+AB$20*AL16+AC$20+AD$20*AN16+AE$20</f>
-        <v>5</v>
-      </c>
-      <c r="AK16" s="6">
-        <f t="shared" ref="AK16:AK28" si="29">Y$21+Z$21+AA$21+AB$21*AL16+AC$21+AD$21*AN16+AE$21</f>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="6">
-        <f t="shared" ref="AM16:AM28" si="30">Y$22+Z$22+AA$22+AB$22*AL16+AC$22+AD$22*AN16+AE$22</f>
-        <v>3</v>
-      </c>
-      <c r="AN16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f>A17-$A17*A$14</f>
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <f>B17-$A17*B$14</f>
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <f>C17-$A17*C$14</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>D17-$A17*D$14</f>
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <f>E17-$A17*E$14</f>
-        <v>-1</v>
-      </c>
-      <c r="N17">
-        <f>F17-$A17*F$14</f>
-        <v>-1</v>
-      </c>
-      <c r="O17">
-        <f>G17-$A17*G$14</f>
-        <v>4</v>
-      </c>
       <c r="Q17">
         <f>I17-$J17*I$15</f>
         <v>1</v>
       </c>
       <c r="R17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="23"/>
+        <f>L17-$J17*L$15</f>
         <v>1</v>
       </c>
       <c r="U17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="V17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-2</v>
       </c>
       <c r="W17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AD17">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="AE17">
         <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AI17" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK17" s="2">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AM17" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AO17" s="2">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AP17" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AQ17" s="2">
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="AE17">
+      <c r="AR17" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AT17" s="2">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AH17" s="2">
-        <f t="shared" si="26"/>
+      <c r="AU17" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BC17" s="4"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AG18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" ref="AH18:AU18" si="30">SUM(AH12:AH17)</f>
+        <v>11</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
-      <c r="AI17" s="2">
-        <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="AJ17" s="2">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="AK17" s="2">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AL17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="2">
+      <c r="AJ18">
         <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AN17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AH18" s="2">
-        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
-      <c r="AI18" s="2">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AJ18" s="2">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="AK18" s="2">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AL18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="2">
+      <c r="AL18">
         <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AN18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="AW18">
+        <f>MIN(AH18:AU18)</f>
+        <v>8</v>
+      </c>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BC18" s="4"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X19" t="s">
         <v>1</v>
       </c>
@@ -2288,34 +2558,13 @@
       <c r="AE19">
         <v>2</v>
       </c>
-      <c r="AH19" s="6">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AI19" s="6">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="6">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="AK19" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="7">
-        <v>2</v>
-      </c>
-      <c r="AM19" s="6">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AN19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BC19" s="4"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X20" t="s">
         <v>2</v>
       </c>
@@ -2340,34 +2589,13 @@
       <c r="AE20">
         <v>5</v>
       </c>
-      <c r="AH20" s="2">
-        <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="AI20" s="2">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="AJ20" s="2">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="AK20" s="2">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="AL20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="2">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AN20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BC20" s="4"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="V21" t="s">
         <v>9</v>
       </c>
@@ -2398,34 +2626,13 @@
       <c r="AE21">
         <v>1</v>
       </c>
-      <c r="AH21" s="2">
-        <f t="shared" si="26"/>
-        <v>12</v>
-      </c>
-      <c r="AI21" s="2">
-        <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="AJ21" s="2">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="AK21" s="2">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AL21" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="2">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AN21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BC21" s="4"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="W22" t="s">
         <v>9</v>
       </c>
@@ -2453,62 +2660,20 @@
       <c r="AE22">
         <v>3</v>
       </c>
-      <c r="AH22" s="2">
-        <f t="shared" si="26"/>
-        <v>11</v>
-      </c>
-      <c r="AI22" s="2">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AJ22" s="2">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="AK22" s="2">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AL22" s="5">
-        <v>2</v>
-      </c>
-      <c r="AM22" s="2">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AN22" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AH23" s="6">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AI23" s="6">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="6">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="AK23" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="7">
-        <v>3</v>
-      </c>
-      <c r="AM23" s="6">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AN23" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BC22" s="4"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BC23" s="4"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X24" t="s">
         <v>6</v>
       </c>
@@ -2533,34 +2698,13 @@
       <c r="AE24">
         <v>3</v>
       </c>
-      <c r="AH24" s="2">
-        <f t="shared" si="26"/>
-        <v>14</v>
-      </c>
-      <c r="AI24" s="2">
-        <f>Y$19+Z$19+AA$19+AB$19*AL24+AC$19+AD$19*AN24+AE$19</f>
-        <v>5</v>
-      </c>
-      <c r="AJ24" s="2">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AK24" s="2">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="AL24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="2">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AN24" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BC24" s="4"/>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X25" t="s">
         <v>4</v>
       </c>
@@ -2585,97 +2729,34 @@
       <c r="AE25">
         <v>1</v>
       </c>
-      <c r="AH25" s="2">
-        <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="AI25" s="2">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="AJ25" s="2">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AK25" s="2">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="AL25" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="2">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AH26" s="2">
-        <f t="shared" si="26"/>
-        <v>12</v>
-      </c>
-      <c r="AI26" s="2">
-        <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="AJ26" s="2">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AK26" s="2">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AL26" s="5">
-        <v>2</v>
-      </c>
-      <c r="AM26" s="2">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BC25" s="4"/>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BC26" s="4"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="N27" t="s">
         <v>6</v>
       </c>
       <c r="O27" t="s">
         <v>4</v>
       </c>
-      <c r="AH27" s="2">
-        <f t="shared" si="26"/>
-        <v>11</v>
-      </c>
-      <c r="AI27" s="2">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AJ27" s="2">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AK27" s="2">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AL27" s="5">
-        <v>3</v>
-      </c>
-      <c r="AM27" s="2">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AN27" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="N28" s="3">
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BC27" s="4"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="N28" s="1">
         <v>0</v>
       </c>
       <c r="O28">
@@ -2684,35 +2765,14 @@
       <c r="P28">
         <v>1</v>
       </c>
-      <c r="AH28" s="6">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AI28" s="6">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="6">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AK28" s="6">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="7">
-        <v>4</v>
-      </c>
-      <c r="AM28" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AN28" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="N29" s="3">
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BC28" s="4"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="N29" s="1">
         <v>1</v>
       </c>
       <c r="O29">
@@ -2724,10 +2784,14 @@
       <c r="Q29">
         <v>2</v>
       </c>
-      <c r="AH29" s="8"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="N30" s="3">
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BC29" s="4"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="N30" s="1">
         <v>2</v>
       </c>
       <c r="O30">
@@ -2743,8 +2807,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="N31" s="3">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="N31" s="1">
         <v>3</v>
       </c>
       <c r="O31">
@@ -2761,6 +2825,1939 @@
       </c>
       <c r="S31">
         <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I36" si="31">A35-$A35*A$38</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J37" si="32">B35-$A35*B$38</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K37" si="33">C35-$A35*C$38</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35" si="34">D35-$A35*D$38</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35" si="35">E35-$A35*E$38</f>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N37" si="36">F35-$A35*F$38</f>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O37" si="37">G35-$A35*G$38</f>
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35" si="38">I35-$J35*I$36</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ref="R35" si="39">J35-$J35*J$36</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35" si="40">K35-$J35*K$36</f>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" ref="T35" si="41">L35-$J35*L$36</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" ref="U35" si="42">M35-$J35*M$36</f>
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ref="V35" si="43">N35-$J35*N$36</f>
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ref="R35:W37" si="44">O35-$J35*O$36</f>
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ref="Y35:Y38" si="45">Q35-$S35*Q$37</f>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" ref="Z35:Z36" si="46">R35-$S35*R$37</f>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ref="AA35:AA36" si="47">S35-$S35*S$37</f>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" ref="AB35:AB36" si="48">T35-$S35*T$37</f>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" ref="AC35:AC36" si="49">U35-$S35*U$37</f>
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" ref="AD35:AD36" si="50">V35-$S35*V$37</f>
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" ref="AE35:AE36" si="51">W35-$S35*W$37</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>D36-$A36*D$38</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>E36-$A36*E$38</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="51"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <f>A37-$A37*A$38</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f>D37-$A37*D$38</f>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f>E37-$A37*E$38</f>
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <f>I37-$J37*I$36</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <f>L37-$J37*L$36</f>
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <f>I38-$J38*I$36</f>
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <f>J38-$J38*J$36</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:V38" si="52">K38-$J38*K$36</f>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f>L38-$J38*L$36</f>
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="W38">
+        <f>O38-$J38*O$36</f>
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" ref="Z38" si="53">R38-$S38*R$37</f>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ref="AA38" si="54">S38-$S38*S$37</f>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" ref="AB38" si="55">T38-$S38*T$37</f>
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" ref="AC38" si="56">U38-$S38*U$37</f>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" ref="AD38" si="57">V38-$S38*V$37</f>
+        <v>-1</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" ref="AE38" si="58">W38-$S38*W$37</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2">
+        <v>3</v>
+      </c>
+      <c r="L41" s="2">
+        <v>4</v>
+      </c>
+      <c r="M41" s="2">
+        <v>5</v>
+      </c>
+      <c r="N41" s="2">
+        <v>6</v>
+      </c>
+      <c r="O41" s="2">
+        <v>7</v>
+      </c>
+      <c r="P41" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>9</v>
+      </c>
+      <c r="R41" s="2">
+        <v>10</v>
+      </c>
+      <c r="S41" s="2">
+        <v>11</v>
+      </c>
+      <c r="T41" s="2">
+        <v>12</v>
+      </c>
+      <c r="U41" s="2">
+        <v>13</v>
+      </c>
+      <c r="V41" s="2">
+        <v>14</v>
+      </c>
+      <c r="W41" s="2">
+        <v>15</v>
+      </c>
+      <c r="X41" s="2">
+        <v>16</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <f>-$D42*H$41+$E42</f>
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:AA47" si="59">-$D42*I$41+$E42</f>
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="59"/>
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="59"/>
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <f>-$D42*L$41+$E42</f>
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="59"/>
+        <v>-1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="59"/>
+        <v>-2</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="59"/>
+        <v>-3</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="59"/>
+        <v>-4</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="59"/>
+        <v>-5</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="59"/>
+        <v>-6</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="59"/>
+        <v>-7</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="59"/>
+        <v>-8</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="59"/>
+        <v>-9</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="59"/>
+        <v>-10</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="59"/>
+        <v>-11</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="59"/>
+        <v>-12</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="59"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:W47" si="60">-$D43*H$41+$E43</f>
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="60"/>
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="60"/>
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="60"/>
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="60"/>
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="60"/>
+        <v>7</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="60"/>
+        <v>8</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="60"/>
+        <v>9</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="60"/>
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="60"/>
+        <v>11</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="60"/>
+        <v>12</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="60"/>
+        <v>13</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="60"/>
+        <v>14</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="59"/>
+        <v>16</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="59"/>
+        <v>17</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="60"/>
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <f>SUM(H41:H47)</f>
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:AA48" si="61">SUM(I41:I47)</f>
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="61"/>
+        <v>13</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="61"/>
+        <v>15</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="61"/>
+        <v>16</v>
+      </c>
+      <c r="O48">
+        <f>SUM(O41:O47)</f>
+        <v>17</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="61"/>
+        <v>18</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="61"/>
+        <v>19</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="61"/>
+        <v>20</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="61"/>
+        <v>21</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="61"/>
+        <v>22</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="61"/>
+        <v>23</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="61"/>
+        <v>24</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="61"/>
+        <v>26</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="61"/>
+        <v>27</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="61"/>
+        <v>28</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="61"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>2</v>
+      </c>
+      <c r="O50" s="2">
+        <v>3</v>
+      </c>
+      <c r="P50" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>5</v>
+      </c>
+      <c r="R50" s="2">
+        <v>6</v>
+      </c>
+      <c r="S50" s="2">
+        <v>7</v>
+      </c>
+      <c r="T50" s="2">
+        <v>8</v>
+      </c>
+      <c r="U50" s="2">
+        <v>9</v>
+      </c>
+      <c r="V50" s="2">
+        <v>10</v>
+      </c>
+      <c r="W50" s="2">
+        <v>11</v>
+      </c>
+      <c r="X50" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>-0.5</v>
+      </c>
+      <c r="J52">
+        <v>13</v>
+      </c>
+      <c r="L52">
+        <f>-$I52*L$50+$J52</f>
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ref="M52:AE59" si="62">-$I52*M$50+$J52</f>
+        <v>13.5</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="62"/>
+        <v>14</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="62"/>
+        <v>14.5</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="62"/>
+        <v>15.5</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="62"/>
+        <v>16</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="62"/>
+        <v>16.5</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="62"/>
+        <v>17</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="62"/>
+        <v>17.5</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="62"/>
+        <v>18</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="62"/>
+        <v>18.5</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="62"/>
+        <v>19</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="62"/>
+        <v>19.5</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="62"/>
+        <v>20</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="62"/>
+        <v>20.5</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="62"/>
+        <v>21</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="62"/>
+        <v>21.5</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="62"/>
+        <v>22</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="62"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>-1.5</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:AA59" si="63">-$I53*L$50+$J53</f>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="63"/>
+        <v>1.5</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="63"/>
+        <v>4.5</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="63"/>
+        <v>6</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="63"/>
+        <v>7.5</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+      <c r="S53">
+        <f>-$I53*S$50+$J53</f>
+        <v>10.5</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="63"/>
+        <v>13.5</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="63"/>
+        <v>16.5</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="63"/>
+        <v>18</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="63"/>
+        <v>19.5</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="63"/>
+        <v>21</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="63"/>
+        <v>22.5</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="62"/>
+        <v>24</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="62"/>
+        <v>25.5</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="62"/>
+        <v>27</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="62"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>-3.5</v>
+      </c>
+      <c r="J54">
+        <v>-41</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="63"/>
+        <v>-41</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="62"/>
+        <v>-37.5</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="62"/>
+        <v>-34</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="62"/>
+        <v>-30.5</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="62"/>
+        <v>-27</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="62"/>
+        <v>-23.5</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="62"/>
+        <v>-20</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="62"/>
+        <v>-16.5</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="62"/>
+        <v>-13</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="62"/>
+        <v>-9.5</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="62"/>
+        <v>-6</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="62"/>
+        <v>-2.5</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="62"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="62"/>
+        <v>11.5</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="62"/>
+        <v>18.5</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="62"/>
+        <v>22</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="62"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>171</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="63"/>
+        <v>171</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="62"/>
+        <v>166</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="62"/>
+        <v>161</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="62"/>
+        <v>156</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="62"/>
+        <v>151</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="62"/>
+        <v>146</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="62"/>
+        <v>141</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="62"/>
+        <v>136</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="62"/>
+        <v>131</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="62"/>
+        <v>126</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="62"/>
+        <v>121</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="62"/>
+        <v>116</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="62"/>
+        <v>111</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="62"/>
+        <v>106</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="62"/>
+        <v>101</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="62"/>
+        <v>96</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="62"/>
+        <v>91</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="62"/>
+        <v>86</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="62"/>
+        <v>81</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="62"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>-3</v>
+      </c>
+      <c r="J56">
+        <v>-21</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="63"/>
+        <v>-21</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="62"/>
+        <v>-18</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="62"/>
+        <v>-15</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="62"/>
+        <v>-12</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="62"/>
+        <v>-9</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="62"/>
+        <v>-6</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="62"/>
+        <v>-3</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="62"/>
+        <v>3</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="62"/>
+        <v>6</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="62"/>
+        <v>9</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="62"/>
+        <v>12</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="62"/>
+        <v>18</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="62"/>
+        <v>21</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="62"/>
+        <v>24</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="62"/>
+        <v>27</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="62"/>
+        <v>30</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="62"/>
+        <v>33</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="62"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>31</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="63"/>
+        <v>31</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="62"/>
+        <v>29</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="62"/>
+        <v>27</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="62"/>
+        <v>25</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="62"/>
+        <v>23</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="62"/>
+        <v>21</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="62"/>
+        <v>19</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="62"/>
+        <v>17</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="62"/>
+        <v>13</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="62"/>
+        <v>11</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="62"/>
+        <v>9</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="62"/>
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="62"/>
+        <v>3</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="62"/>
+        <v>-3</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="62"/>
+        <v>-5</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="62"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>2.5</v>
+      </c>
+      <c r="J58">
+        <v>34</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="63"/>
+        <v>34</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="62"/>
+        <v>31.5</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="62"/>
+        <v>29</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="62"/>
+        <v>26.5</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="62"/>
+        <v>24</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="62"/>
+        <v>21.5</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="62"/>
+        <v>19</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="62"/>
+        <v>16.5</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="62"/>
+        <v>14</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="62"/>
+        <v>11.5</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="62"/>
+        <v>9</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="62"/>
+        <v>6.5</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="62"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="62"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="62"/>
+        <v>-6</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="62"/>
+        <v>-8.5</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="62"/>
+        <v>-11</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="62"/>
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1.5</v>
+      </c>
+      <c r="J59">
+        <v>30</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="63"/>
+        <v>30</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="62"/>
+        <v>28.5</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="62"/>
+        <v>27</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="62"/>
+        <v>25.5</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="62"/>
+        <v>24</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="62"/>
+        <v>22.5</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="62"/>
+        <v>21</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="62"/>
+        <v>19.5</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="62"/>
+        <v>18</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="62"/>
+        <v>16.5</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="62"/>
+        <v>13.5</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="62"/>
+        <v>12</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="62"/>
+        <v>10.5</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="62"/>
+        <v>9</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="62"/>
+        <v>7.5</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="62"/>
+        <v>6</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="62"/>
+        <v>4.5</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="62"/>
+        <v>3</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="62"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <f>SUM(L52:L59)</f>
+        <v>217</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ref="M60:AE60" si="64">SUM(M52:M59)</f>
+        <v>214.5</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="64"/>
+        <v>212</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="64"/>
+        <v>209.5</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="64"/>
+        <v>207</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="64"/>
+        <v>204.5</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="64"/>
+        <v>202</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="64"/>
+        <v>199.5</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="64"/>
+        <v>197</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="64"/>
+        <v>194.5</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="64"/>
+        <v>192</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="64"/>
+        <v>189.5</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="64"/>
+        <v>187</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="64"/>
+        <v>184.5</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="64"/>
+        <v>182</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="64"/>
+        <v>179.5</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="64"/>
+        <v>177</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="64"/>
+        <v>174.5</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="64"/>
+        <v>172</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="64"/>
+        <v>169.5</v>
       </c>
     </row>
   </sheetData>

--- a/AOC25/day10/brainstorm.xlsx
+++ b/AOC25/day10/brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adomas\Documents\GitHub\AOC25\AOC25\day10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EFC465-DF12-4623-99EF-230429C72F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB562B27-3B10-42C5-B845-F912E59116AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2E265E4C-2000-4D12-84F2-2C4A93F6DE5F}"/>
+    <workbookView xWindow="-17388" yWindow="-108" windowWidth="17496" windowHeight="30216" xr2:uid="{2E265E4C-2000-4D12-84F2-2C4A93F6DE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>&lt;</t>
   </si>
@@ -69,6 +69,36 @@
   </si>
   <si>
     <t>Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       0       0       0       0       1       0       0       0       0       0       0    -1/2    -1/4    31/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       0       1       0       0       0       0       0       0       0       0       0       1     3/2      27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       0       0       0       1       0       0       0       0       0       0       0     1/2    -1/4     7/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       0       0       1       0       0       0       0       0       0       0       0      -2      -2     -16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       0       0       0       0       0       1       0       0       0       0       0     1/2     3/4    31/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       0       0       0       0       0       0       0       1       0       0      -1     1/2     1/4   -15/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       0       0       0       0       0       0       1       0       0       0       1       0    -1/2      29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       0       0       0       0       0       0       0       0       1       0       0       0     1/2       4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1       0       0       0       0       0       0       0       0       0       0       0    -1/2       7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       0       0       0       0       0       0       0       0       0       1       0     1/2     3/4    15/2</t>
   </si>
 </sst>
 </file>
@@ -476,22 +506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C27D49-D282-4D4A-B9CD-0F9675B81E43}">
-  <dimension ref="A1:BS60"/>
+  <dimension ref="A1:BS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Y60" sqref="Y52:Y60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="V74" sqref="V74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="3.77734375" customWidth="1"/>
-    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" customWidth="1"/>
-    <col min="25" max="25" width="10.44140625" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" customWidth="1"/>
+    <col min="23" max="23" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.3">
@@ -3317,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="I42">
-        <f t="shared" ref="I42:AA47" si="59">-$D42*I$41+$E42</f>
+        <f t="shared" ref="I42:AA45" si="59">-$D42*I$41+$E42</f>
         <v>5</v>
       </c>
       <c r="J42">
@@ -3410,7 +3435,7 @@
         <v>-1</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43:W47" si="60">-$D43*H$41+$E43</f>
+        <f t="shared" ref="H43:W45" si="60">-$D43*H$41+$E43</f>
         <v>-1</v>
       </c>
       <c r="I43">
@@ -3720,65 +3745,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
-      <c r="N50" s="2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1</v>
+      </c>
+      <c r="N51" s="2">
         <v>2</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O51" s="2">
         <v>3</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P51" s="2">
         <v>4</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q51" s="2">
         <v>5</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R51" s="2">
         <v>6</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S51" s="2">
         <v>7</v>
       </c>
-      <c r="T50" s="2">
+      <c r="T51" s="2">
         <v>8</v>
       </c>
-      <c r="U50" s="2">
+      <c r="U51" s="2">
         <v>9</v>
       </c>
-      <c r="V50" s="2">
+      <c r="V51" s="2">
         <v>10</v>
       </c>
-      <c r="W50" s="2">
+      <c r="W51" s="2">
         <v>11</v>
       </c>
-      <c r="X50" s="2">
+      <c r="X51" s="2">
         <v>12</v>
       </c>
-      <c r="Y50" s="2">
+      <c r="Y51" s="2">
         <v>13</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="Z51" s="2">
         <v>14</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AA51" s="2">
         <v>15</v>
       </c>
-      <c r="AB50" s="2">
+      <c r="AB51" s="2">
         <v>16</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AC51" s="2">
         <v>17</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD51" s="2">
         <v>18</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AE51" s="2">
         <v>19</v>
       </c>
     </row>
@@ -3814,11 +3839,11 @@
         <v>13</v>
       </c>
       <c r="L52">
-        <f>-$I52*L$50+$J52</f>
+        <f t="shared" ref="L52:U59" si="62">-$I52*L$51+$J52</f>
         <v>13</v>
       </c>
       <c r="M52">
-        <f t="shared" ref="M52:AE59" si="62">-$I52*M$50+$J52</f>
+        <f t="shared" si="62"/>
         <v>13.5</v>
       </c>
       <c r="N52">
@@ -3854,43 +3879,43 @@
         <v>17.5</v>
       </c>
       <c r="V52">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="V52:AE59" si="63">-$I52*V$51+$J52</f>
         <v>18</v>
       </c>
       <c r="W52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>18.5</v>
       </c>
       <c r="X52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>19</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>19.5</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>20</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>20.5</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>21</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>21.5</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>22</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>22.5</v>
       </c>
     </row>
@@ -3926,43 +3951,43 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:AA59" si="63">-$I53*L$50+$J53</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>1.5</v>
       </c>
       <c r="N53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="O53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>4.5</v>
       </c>
       <c r="P53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>6</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>7.5</v>
       </c>
       <c r="R53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>9</v>
       </c>
       <c r="S53">
-        <f>-$I53*S$50+$J53</f>
+        <f t="shared" si="62"/>
         <v>10.5</v>
       </c>
       <c r="T53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>12</v>
       </c>
       <c r="U53">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>13.5</v>
       </c>
       <c r="V53">
@@ -3990,19 +4015,19 @@
         <v>22.5</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>24</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>25.5</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>27</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>28.5</v>
       </c>
     </row>
@@ -4038,7 +4063,7 @@
         <v>-41</v>
       </c>
       <c r="L54">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>-41</v>
       </c>
       <c r="M54">
@@ -4078,43 +4103,43 @@
         <v>-9.5</v>
       </c>
       <c r="V54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-6</v>
       </c>
       <c r="W54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-2.5</v>
       </c>
       <c r="X54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>4.5</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>8</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>11.5</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>15</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>18.5</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>22</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>25.5</v>
       </c>
     </row>
@@ -4150,7 +4175,7 @@
         <v>171</v>
       </c>
       <c r="L55">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>171</v>
       </c>
       <c r="M55">
@@ -4190,43 +4215,43 @@
         <v>126</v>
       </c>
       <c r="V55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>121</v>
       </c>
       <c r="W55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>116</v>
       </c>
       <c r="X55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>111</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>106</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>101</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>96</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>91</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>86</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>81</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
     </row>
@@ -4262,7 +4287,7 @@
         <v>-21</v>
       </c>
       <c r="L56">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>-21</v>
       </c>
       <c r="M56">
@@ -4302,43 +4327,43 @@
         <v>6</v>
       </c>
       <c r="V56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9</v>
       </c>
       <c r="W56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>12</v>
       </c>
       <c r="X56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>15</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>18</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>21</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>24</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>27</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>30</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>33</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>36</v>
       </c>
     </row>
@@ -4374,7 +4399,7 @@
         <v>31</v>
       </c>
       <c r="L57">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>31</v>
       </c>
       <c r="M57">
@@ -4414,43 +4439,43 @@
         <v>13</v>
       </c>
       <c r="V57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>11</v>
       </c>
       <c r="W57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9</v>
       </c>
       <c r="X57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="AC57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-3</v>
       </c>
       <c r="AD57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-5</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-7</v>
       </c>
     </row>
@@ -4486,7 +4511,7 @@
         <v>34</v>
       </c>
       <c r="L58">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>34</v>
       </c>
       <c r="M58">
@@ -4526,43 +4551,43 @@
         <v>11.5</v>
       </c>
       <c r="V58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9</v>
       </c>
       <c r="W58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>6.5</v>
       </c>
       <c r="X58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>4</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.5</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-3.5</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-6</v>
       </c>
       <c r="AC58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-8.5</v>
       </c>
       <c r="AD58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-11</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-13.5</v>
       </c>
     </row>
@@ -4598,7 +4623,7 @@
         <v>30</v>
       </c>
       <c r="L59">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="M59">
@@ -4638,126 +4663,1112 @@
         <v>16.5</v>
       </c>
       <c r="V59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>15</v>
       </c>
       <c r="W59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>13.5</v>
       </c>
       <c r="X59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>12</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>10.5</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.5</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>6</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>4.5</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="L60">
-        <f>SUM(L52:L59)</f>
+        <f>SUM(L51:L59)</f>
         <v>217</v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:AE60" si="64">SUM(M52:M59)</f>
-        <v>214.5</v>
+        <f t="shared" ref="M60:AE60" si="64">SUM(M51:M59)</f>
+        <v>215.5</v>
       </c>
       <c r="N60">
         <f t="shared" si="64"/>
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O60">
         <f t="shared" si="64"/>
-        <v>209.5</v>
+        <v>212.5</v>
       </c>
       <c r="P60">
         <f t="shared" si="64"/>
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <f t="shared" si="64"/>
-        <v>204.5</v>
+        <v>209.5</v>
       </c>
       <c r="R60">
         <f t="shared" si="64"/>
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="S60">
         <f t="shared" si="64"/>
-        <v>199.5</v>
+        <v>206.5</v>
       </c>
       <c r="T60">
         <f t="shared" si="64"/>
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="U60">
         <f t="shared" si="64"/>
-        <v>194.5</v>
+        <v>203.5</v>
       </c>
       <c r="V60">
         <f t="shared" si="64"/>
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="W60">
         <f t="shared" si="64"/>
-        <v>189.5</v>
+        <v>200.5</v>
       </c>
       <c r="X60">
         <f t="shared" si="64"/>
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Y60">
         <f t="shared" si="64"/>
-        <v>184.5</v>
+        <v>197.5</v>
       </c>
       <c r="Z60">
         <f t="shared" si="64"/>
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AA60">
         <f t="shared" si="64"/>
-        <v>179.5</v>
+        <v>194.5</v>
       </c>
       <c r="AB60">
         <f t="shared" si="64"/>
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="AC60">
         <f t="shared" si="64"/>
-        <v>174.5</v>
+        <v>191.5</v>
       </c>
       <c r="AD60">
         <f t="shared" si="64"/>
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AE60">
         <f t="shared" si="64"/>
-        <v>169.5</v>
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>30</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>10</v>
+      </c>
+      <c r="U73">
+        <v>58</v>
+      </c>
+      <c r="V73">
+        <v>11</v>
+      </c>
+      <c r="W73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>63</v>
+      </c>
+      <c r="V74">
+        <v>6</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="AK74" s="2"/>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="P75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>0</v>
+      </c>
+      <c r="R75" s="2">
+        <v>0</v>
+      </c>
+      <c r="S75" s="2">
+        <v>1</v>
+      </c>
+      <c r="T75" s="2">
+        <v>0</v>
+      </c>
+      <c r="U75" s="2">
+        <v>0</v>
+      </c>
+      <c r="V75" s="2">
+        <v>2</v>
+      </c>
+      <c r="W75" s="2">
+        <v>8</v>
+      </c>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>-0.5</v>
+      </c>
+      <c r="M76">
+        <v>-0.25</v>
+      </c>
+      <c r="N76">
+        <v>15.5</v>
+      </c>
+      <c r="P76">
+        <f>-$K76*P$73+-$L76*P$74+-$M76*P$75+$N76</f>
+        <v>15.5</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" ref="Q76:W76" si="65">-$K76*Q$73+-$L76*Q$74+-$M76*Q$75+$N76</f>
+        <v>16</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="65"/>
+        <v>15.5</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="65"/>
+        <v>16.25</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="65"/>
+        <v>15.5</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="65"/>
+        <v>47</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="65"/>
+        <v>19</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="65"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1.5</v>
+      </c>
+      <c r="N77">
+        <v>27</v>
+      </c>
+      <c r="P77">
+        <f t="shared" ref="P77:W85" si="66">-$K77*P$73+-$L77*P$74+-$M77*P$75+$N77</f>
+        <v>27</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="66"/>
+        <v>26</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="66"/>
+        <v>27</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="66"/>
+        <v>24.5</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="66"/>
+        <v>27</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="66"/>
+        <v>-36</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="66"/>
+        <v>18</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="66"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0.5</v>
+      </c>
+      <c r="M78">
+        <v>-0.25</v>
+      </c>
+      <c r="N78">
+        <v>3.5</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="66"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="66"/>
+        <v>3.5</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="66"/>
+        <v>3.25</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="66"/>
+        <v>3.5</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="66"/>
+        <v>-28</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="66"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-2</v>
+      </c>
+      <c r="M79">
+        <v>-2</v>
+      </c>
+      <c r="N79">
+        <v>-16</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="66"/>
+        <v>-16</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="66"/>
+        <v>-14</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="66"/>
+        <v>-16</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="66"/>
+        <v>-12</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="66"/>
+        <v>-16</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="66"/>
+        <v>110</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0.5</v>
+      </c>
+      <c r="M80">
+        <v>0.75</v>
+      </c>
+      <c r="N80">
+        <v>15.5</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="66"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="66"/>
+        <v>15</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="66"/>
+        <v>15.5</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="66"/>
+        <v>14.25</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="66"/>
+        <v>15.5</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="66"/>
+        <v>-16</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="66"/>
+        <v>11</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="66"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>-1</v>
+      </c>
+      <c r="L81">
+        <v>0.5</v>
+      </c>
+      <c r="M81">
+        <v>0.25</v>
+      </c>
+      <c r="N81">
+        <v>-7.5</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="66"/>
+        <v>-7.5</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="66"/>
+        <v>-8</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="66"/>
+        <v>22.5</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="66"/>
+        <v>-8.25</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="66"/>
+        <v>2.5</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="66"/>
+        <v>19</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>-0.5</v>
+      </c>
+      <c r="N82">
+        <v>29</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="66"/>
+        <v>29</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="66"/>
+        <v>29</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="66"/>
+        <v>29.5</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="66"/>
+        <v>19</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="66"/>
+        <v>-29</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="66"/>
+        <v>19</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="66"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0.5</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="66"/>
+        <v>3.5</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>-0.5</v>
+      </c>
+      <c r="N84">
+        <v>7</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="66"/>
+        <v>7.5</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="66"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0.5</v>
+      </c>
+      <c r="M85">
+        <v>0.75</v>
+      </c>
+      <c r="N85">
+        <v>7.5</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="66"/>
+        <v>7.5</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="66"/>
+        <v>7.5</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="66"/>
+        <v>6.25</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="66"/>
+        <v>7.5</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="66"/>
+        <v>-24</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <f>SUM(P73:P85)</f>
+        <v>85.5</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" ref="Q86:W86" si="67">SUM(Q73:Q85)</f>
+        <v>86</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="67"/>
+        <v>115.5</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="67"/>
+        <v>86.75</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="67"/>
+        <v>95.5</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="67"/>
+        <v>175</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="67"/>
+        <v>101</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="67"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
